--- a/MadisonTesting/src/main/resources/Madison.xlsx
+++ b/MadisonTesting/src/main/resources/Madison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAUMYARUP\Downloads\MadisionIslandSite\MadisionIslandSite\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAUMYARUP\git\MadisonTesting\MadisonTesting\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4287F-DBA8-45B9-B3AB-B1D65BA2D7F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CF9F65-3CB3-4C42-9485-A22EB6CF7946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>firstname</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>somo123</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Thank you for registering with Madison Island.</t>
   </si>
 </sst>
 </file>
@@ -390,9 +396,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -404,9 +410,10 @@
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +432,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -445,8 +455,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -464,6 +477,9 @@
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
